--- a/src/test/resources/E-Com.xlsx
+++ b/src/test/resources/E-Com.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse_GroTechMInd\E-Com\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0744444F-1432-4CB8-8D5A-B34DD3BC77E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887DAB78-164C-45F6-BADB-777E07A18ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11235" xr2:uid="{40A5E49C-9409-46E9-9BB7-B77C98533AED}"/>
+    <workbookView xWindow="1920" yWindow="2280" windowWidth="21600" windowHeight="11235" xr2:uid="{40A5E49C-9409-46E9-9BB7-B77C98533AED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="amazon" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,19 +25,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
-  <si>
-    <t>arr2604@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>raja</t>
+  </si>
+  <si>
+    <t>rajaram</t>
+  </si>
+  <si>
+    <t>uName</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>raja12</t>
+  </si>
+  <si>
+    <t>raja2604</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +61,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,8 +95,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -396,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C89339A-5F0F-4840-873D-256F85DFF630}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,25 +428,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>123</v>
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2">
+        <v>9600255247</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>9600255247</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>9600255247</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>9600255247</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{E87615A7-4783-42FA-834A-F435581AEAC9}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{F2DA1D5E-EC72-41A0-8E45-95B6917147B1}"/>
+    <hyperlink ref="A2" r:id="rId1" display="arr2604@gmail.com" xr:uid="{E87615A7-4783-42FA-834A-F435581AEAC9}"/>
+    <hyperlink ref="A3" r:id="rId2" display="arr2604@gmail.com" xr:uid="{FCDB65D9-FE16-4F5E-B500-A889060228E8}"/>
+    <hyperlink ref="A4" r:id="rId3" display="arr2604@gmail.com" xr:uid="{3E7F2A19-F445-4ABB-9C92-64ECF6FFA622}"/>
+    <hyperlink ref="A5" r:id="rId4" display="arr2604@gmail.com" xr:uid="{DB5FF823-23F7-431C-847B-FE65763CAD0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
